--- a/src/main/resources/excelsheet/plantNg.xlsx
+++ b/src/main/resources/excelsheet/plantNg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sathurya\My-practies-hrm\My-Practies-HRM\src\main\resources\excelsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sathurya\HRM-final\orangeHRM\src\main\resources\excelsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2586D497-DD48-4974-8F92-FD487149CF9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8607A2-27A9-4EA6-BEA2-DB505072F2D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="customerData" sheetId="9" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="10" r:id="rId7"/>
     <sheet name="jobTittle" sheetId="11" r:id="rId8"/>
+    <sheet name="PayGrades" sheetId="12" r:id="rId9"/>
+    <sheet name="EmpStatus" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
   <si>
     <t>admin</t>
   </si>
@@ -233,6 +235,33 @@
   </si>
   <si>
     <t>ftjghbk</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>sathush</t>
+  </si>
+  <si>
+    <t>fhgmh</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>Invalid data</t>
+  </si>
+  <si>
+    <t>ghk</t>
+  </si>
+  <si>
+    <t>ghkgbkh</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>valid data</t>
   </si>
 </sst>
 </file>
@@ -731,6 +760,31 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56604A9-6543-4DDA-B967-B83BD017EFE2}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
@@ -1145,18 +1199,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A03A68D-D7D6-4B88-8BC9-D6ED8E22CC27}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -1166,8 +1222,14 @@
       <c r="C1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1176,6 +1238,48 @@
       </c>
       <c r="C2" t="s">
         <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F28833-5A1B-4CA7-8610-56D6500DF9D9}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
